--- a/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
+++ b/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
@@ -777,10 +777,10 @@
   <dimension ref="A5:BO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AT21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,9 +1698,15 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="15">
+        <v>1</v>
+      </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
@@ -1772,7 +1778,9 @@
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
+      <c r="Y16" s="15">
+        <v>1</v>
+      </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
@@ -1822,7 +1830,9 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1844,8 +1854,12 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="Z17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>1</v>
+      </c>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
@@ -1914,10 +1928,14 @@
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
+      <c r="Y18" s="15">
+        <v>1</v>
+      </c>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="15">
+        <v>1</v>
+      </c>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
@@ -1985,12 +2003,18 @@
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
+      <c r="Y19" s="15">
+        <v>1</v>
+      </c>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
+      <c r="AC19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>1</v>
+      </c>
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
@@ -2056,12 +2080,16 @@
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
+      <c r="Y20" s="15">
+        <v>1</v>
+      </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
+      <c r="AD20" s="15">
+        <v>1</v>
+      </c>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
@@ -2127,12 +2155,16 @@
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="Y21" s="15">
+        <v>1</v>
+      </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
+      <c r="AD21" s="15">
+        <v>1</v>
+      </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
@@ -2204,7 +2236,9 @@
       <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
+      <c r="AE22" s="16">
+        <v>1</v>
+      </c>
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
@@ -2275,7 +2309,9 @@
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
+      <c r="AE23" s="16">
+        <v>1</v>
+      </c>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
@@ -2347,7 +2383,9 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
+      <c r="AF24" s="16">
+        <v>1</v>
+      </c>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
@@ -2418,7 +2456,9 @@
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
+      <c r="AF25" s="16">
+        <v>1</v>
+      </c>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
@@ -2497,8 +2537,12 @@
       <c r="AK26" s="17"/>
       <c r="AL26" s="17"/>
       <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
+      <c r="AN26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>1</v>
+      </c>
       <c r="AP26" s="17"/>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
@@ -2561,9 +2605,15 @@
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
       <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
+      <c r="AG27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="17">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
       <c r="AL27" s="17"/>
@@ -2635,10 +2685,18 @@
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
+      <c r="AJ28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="17">
+        <v>1</v>
+      </c>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
@@ -2712,7 +2770,9 @@
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
+      <c r="AP29" s="18">
+        <v>1</v>
+      </c>
       <c r="AQ29" s="18"/>
       <c r="AR29" s="18"/>
       <c r="AS29" s="18"/>
@@ -2784,9 +2844,15 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="18"/>
       <c r="AP30" s="18"/>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
+      <c r="AQ30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="18">
+        <v>1</v>
+      </c>
       <c r="AT30" s="18"/>
       <c r="AU30" s="18"/>
       <c r="AV30" s="18"/>
@@ -2858,7 +2924,9 @@
       <c r="AQ31" s="18"/>
       <c r="AR31" s="18"/>
       <c r="AS31" s="18"/>
-      <c r="AT31" s="18"/>
+      <c r="AT31" s="18">
+        <v>1</v>
+      </c>
       <c r="AU31" s="18"/>
       <c r="AV31" s="18"/>
       <c r="AW31" s="18"/>
@@ -3001,8 +3069,12 @@
       <c r="AR33" s="19"/>
       <c r="AS33" s="19"/>
       <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
-      <c r="AV33" s="19"/>
+      <c r="AU33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="19">
+        <v>1</v>
+      </c>
       <c r="AW33" s="19"/>
       <c r="AX33" s="19"/>
       <c r="AY33" s="19"/>
@@ -3055,7 +3127,9 @@
       <c r="AA34" s="19"/>
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
+      <c r="AD34" s="19">
+        <v>1</v>
+      </c>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
@@ -3074,10 +3148,18 @@
       <c r="AT34" s="19"/>
       <c r="AU34" s="19"/>
       <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
+      <c r="AW34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="19">
+        <v>1</v>
+      </c>
       <c r="BA34" s="19"/>
       <c r="BB34" s="19"/>
       <c r="BC34" s="19"/>
@@ -3149,9 +3231,15 @@
       <c r="AX35" s="19"/>
       <c r="AY35" s="19"/>
       <c r="AZ35" s="19"/>
-      <c r="BA35" s="19"/>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="19"/>
+      <c r="BA35" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="19">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="19">
+        <v>1</v>
+      </c>
       <c r="BD35" s="19"/>
       <c r="BE35" s="19"/>
       <c r="BF35" s="19"/>
@@ -3223,8 +3311,12 @@
       <c r="BA36" s="19"/>
       <c r="BB36" s="19"/>
       <c r="BC36" s="19"/>
-      <c r="BD36" s="19"/>
-      <c r="BE36" s="19"/>
+      <c r="BD36" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="19">
+        <v>1</v>
+      </c>
       <c r="BF36" s="19"/>
       <c r="BG36" s="19"/>
       <c r="BH36" s="19"/>
@@ -3296,8 +3388,12 @@
       <c r="BC37" s="19"/>
       <c r="BD37" s="19"/>
       <c r="BE37" s="19"/>
-      <c r="BF37" s="19"/>
-      <c r="BG37" s="19"/>
+      <c r="BF37" s="19">
+        <v>1</v>
+      </c>
+      <c r="BG37" s="19">
+        <v>1</v>
+      </c>
       <c r="BH37" s="19"/>
       <c r="BI37" s="19"/>
       <c r="BJ37" s="19"/>
@@ -3313,7 +3409,9 @@
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -3369,9 +3467,15 @@
       <c r="BE38" s="19"/>
       <c r="BF38" s="19"/>
       <c r="BG38" s="19"/>
-      <c r="BH38" s="19"/>
-      <c r="BI38" s="19"/>
-      <c r="BJ38" s="19"/>
+      <c r="BH38" s="19">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="19">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="19">
+        <v>1</v>
+      </c>
       <c r="BK38" s="19"/>
       <c r="BL38" s="19"/>
       <c r="BM38" s="19"/>
@@ -3384,7 +3488,9 @@
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -3443,7 +3549,9 @@
       <c r="BH39" s="19"/>
       <c r="BI39" s="19"/>
       <c r="BJ39" s="19"/>
-      <c r="BK39" s="19"/>
+      <c r="BK39" s="19">
+        <v>1</v>
+      </c>
       <c r="BL39" s="19"/>
       <c r="BM39" s="19"/>
       <c r="BN39" s="19"/>
@@ -3455,7 +3563,9 @@
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -3515,8 +3625,12 @@
       <c r="BI40" s="19"/>
       <c r="BJ40" s="19"/>
       <c r="BK40" s="19"/>
-      <c r="BL40" s="19"/>
-      <c r="BM40" s="19"/>
+      <c r="BL40" s="19">
+        <v>1</v>
+      </c>
+      <c r="BM40" s="19">
+        <v>1</v>
+      </c>
       <c r="BN40" s="19"/>
       <c r="BO40" s="19"/>
     </row>
@@ -3531,251 +3645,251 @@
       </c>
       <c r="D41" s="9">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M41" s="9">
+      <c r="N41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE41" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AF41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM41" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN41" s="9">
         <f t="shared" si="0"/>

--- a/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
+++ b/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
@@ -783,7 +783,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="AS21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AU33" sqref="AU33:AV33"/>
+      <selection pane="bottomRight" activeCell="BN32" sqref="BN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2991,7 @@
       <c r="BK32" s="18"/>
       <c r="BL32" s="18"/>
       <c r="BM32" s="18"/>
-      <c r="BN32" s="18">
+      <c r="BN32" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3122,16 +3122,16 @@
       <c r="AT34" s="18"/>
       <c r="AU34" s="18"/>
       <c r="AV34" s="18"/>
-      <c r="AW34" s="18">
-        <v>1</v>
-      </c>
-      <c r="AX34" s="18">
-        <v>1</v>
-      </c>
-      <c r="AY34" s="18">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="18">
+      <c r="AW34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="19">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="19">
         <v>1</v>
       </c>
       <c r="BA34" s="18"/>
@@ -3204,13 +3204,13 @@
       <c r="AX35" s="18"/>
       <c r="AY35" s="18"/>
       <c r="AZ35" s="18"/>
-      <c r="BA35" s="18">
-        <v>1</v>
-      </c>
-      <c r="BB35" s="18">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="18">
+      <c r="BA35" s="19">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="19">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="19">
         <v>1</v>
       </c>
       <c r="BD35" s="18"/>
@@ -3283,10 +3283,10 @@
       <c r="BA36" s="18"/>
       <c r="BB36" s="18"/>
       <c r="BC36" s="18"/>
-      <c r="BD36" s="18">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="18">
+      <c r="BD36" s="19">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="19">
         <v>1</v>
       </c>
       <c r="BF36" s="18"/>
@@ -3359,10 +3359,10 @@
       <c r="BC37" s="18"/>
       <c r="BD37" s="18"/>
       <c r="BE37" s="18"/>
-      <c r="BF37" s="18">
-        <v>1</v>
-      </c>
-      <c r="BG37" s="18">
+      <c r="BF37" s="19">
+        <v>1</v>
+      </c>
+      <c r="BG37" s="19">
         <v>1</v>
       </c>
       <c r="BH37" s="18"/>
@@ -3437,13 +3437,13 @@
       <c r="BE38" s="18"/>
       <c r="BF38" s="18"/>
       <c r="BG38" s="18"/>
-      <c r="BH38" s="18">
-        <v>1</v>
-      </c>
-      <c r="BI38" s="18">
-        <v>1</v>
-      </c>
-      <c r="BJ38" s="18">
+      <c r="BH38" s="19">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="19">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="19">
         <v>1</v>
       </c>
       <c r="BK38" s="18"/>
@@ -3518,7 +3518,7 @@
       <c r="BH39" s="18"/>
       <c r="BI39" s="18"/>
       <c r="BJ39" s="18"/>
-      <c r="BK39" s="18">
+      <c r="BK39" s="19">
         <v>1</v>
       </c>
       <c r="BL39" s="18"/>
@@ -3593,10 +3593,10 @@
       <c r="BI40" s="18"/>
       <c r="BJ40" s="18"/>
       <c r="BK40" s="18"/>
-      <c r="BL40" s="18">
-        <v>1</v>
-      </c>
-      <c r="BM40" s="18">
+      <c r="BL40" s="19">
+        <v>1</v>
+      </c>
+      <c r="BM40" s="19">
         <v>1</v>
       </c>
       <c r="BN40" s="18"/>

--- a/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
+++ b/Arquitectura de Negocios/Descomposición Funcional/Descomposición Funcional - Nuevo Proyecto.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$C$4:$E$69</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
   <si>
     <t>G65</t>
   </si>
@@ -316,13 +319,265 @@
   </si>
   <si>
     <t>Solicitar Personal</t>
+  </si>
+  <si>
+    <t>Enviar Convenio</t>
+  </si>
+  <si>
+    <t>G67a, G67b, G67c, G67d, G67e, G67f, G67g, G67h, G67i, G67j</t>
+  </si>
+  <si>
+    <t>Subsanar Observaciones</t>
+  </si>
+  <si>
+    <t>Elaborar Informes de Auditoría</t>
+  </si>
+  <si>
+    <t>Gestionar Observaciones de Auditoría</t>
+  </si>
+  <si>
+    <t>Solicitar Adquisición</t>
+  </si>
+  <si>
+    <t>Evaluar Solicitud de Compra</t>
+  </si>
+  <si>
+    <t>Emitir Orden de Compra</t>
+  </si>
+  <si>
+    <t>Convocar Concurso de Precios</t>
+  </si>
+  <si>
+    <t>G76a, G67b</t>
+  </si>
+  <si>
+    <t>Evaluar Cotizaciones</t>
+  </si>
+  <si>
+    <t>G77a, G77b, G77c</t>
+  </si>
+  <si>
+    <t>Gestionar Solicitud de Fondos</t>
+  </si>
+  <si>
+    <t>Evaluar Justificaciones de Fondos Solicitados</t>
+  </si>
+  <si>
+    <t>Registrar Justificantes</t>
+  </si>
+  <si>
+    <t>Elaborar Informe Financiero de Institución Educativa</t>
+  </si>
+  <si>
+    <t>Elaborar Cuestionario de Necesidades</t>
+  </si>
+  <si>
+    <t>G82a, G82b</t>
+  </si>
+  <si>
+    <t>Detallar Necesidades</t>
+  </si>
+  <si>
+    <t>G83a, G83b</t>
+  </si>
+  <si>
+    <t>Evaluar Cuestionario de Necesidades</t>
+  </si>
+  <si>
+    <t>Elaborar Cuadro de Necesidades</t>
+  </si>
+  <si>
+    <t>Realizar Corte de Caja</t>
+  </si>
+  <si>
+    <t>Evaluar Saldos de Caja</t>
+  </si>
+  <si>
+    <t>Realizar Seguimiento de Caja</t>
+  </si>
+  <si>
+    <t>G88a, G88b, G88c, G88d, G88e, G88f</t>
+  </si>
+  <si>
+    <t>Elaborar Voucher u Orden de Pago</t>
+  </si>
+  <si>
+    <t>G89a, G89b, G89c</t>
+  </si>
+  <si>
+    <t>Gestionar Planilla y Boletas de Remuneración</t>
+  </si>
+  <si>
+    <t>Elaborar Boletas de Pago</t>
+  </si>
+  <si>
+    <t>Gestionar Valorización</t>
+  </si>
+  <si>
+    <t>Registrar gasto de Caja Chica</t>
+  </si>
+  <si>
+    <t>G93a, G93b, G93c, G93d</t>
+  </si>
+  <si>
+    <t>Registrar Documento Contable</t>
+  </si>
+  <si>
+    <t>G94a, G94b, G94c, G94d, G94e</t>
+  </si>
+  <si>
+    <t>Gestionar POA de Programa Educativo Rural</t>
+  </si>
+  <si>
+    <t>Gestionar Informes de Programas Educativos Rurales</t>
+  </si>
+  <si>
+    <t>Elaborar Carta</t>
+  </si>
+  <si>
+    <t>Gestionar información de Donantes</t>
+  </si>
+  <si>
+    <t>Sectorizar Donantes</t>
+  </si>
+  <si>
+    <t>Elaborar Certificado de Donación</t>
+  </si>
+  <si>
+    <t>Elaborar Carta de Agradecimiento</t>
+  </si>
+  <si>
+    <t>Listar Donaciones del día</t>
+  </si>
+  <si>
+    <t>Elaborar Declaración Jurada de Donaciones</t>
+  </si>
+  <si>
+    <t>G103a, G103b</t>
+  </si>
+  <si>
+    <t>Registrar Donación</t>
+  </si>
+  <si>
+    <t>Registrar Boleta o Factura de la donación</t>
+  </si>
+  <si>
+    <t>Gestionar Propuestas Económicas</t>
+  </si>
+  <si>
+    <t>Gestionar Plan de Construcciones</t>
+  </si>
+  <si>
+    <t>Gestionar Priorización de Construcciones</t>
+  </si>
+  <si>
+    <t>Gestionar Propuesta de Nuevo Colegio</t>
+  </si>
+  <si>
+    <t>Registrar Conformidad de Obra</t>
+  </si>
+  <si>
+    <t>G110a, G110b</t>
+  </si>
+  <si>
+    <t>Evaluar Solicitud de Fondos de Viaje</t>
+  </si>
+  <si>
+    <t>Elaborar Rendición de Gastos de Viaje</t>
+  </si>
+  <si>
+    <t>Revisar Rendición de Gastos de Viaje</t>
+  </si>
+  <si>
+    <t>Evaluar Rendición de Gastos de Viaje</t>
+  </si>
+  <si>
+    <t>Elaborar Declaración Jurada de Gastos</t>
+  </si>
+  <si>
+    <t>Buscar Perfiles Ocupacionales</t>
+  </si>
+  <si>
+    <t>Gestionar Perfil Ocupacional</t>
+  </si>
+  <si>
+    <t>Evaluar Perfil Ocupacional</t>
+  </si>
+  <si>
+    <t>Gestionar Publicación de Reclutamiento</t>
+  </si>
+  <si>
+    <t>Administrar Curriculum Vitae's</t>
+  </si>
+  <si>
+    <t>Evaluar CV's</t>
+  </si>
+  <si>
+    <t>Evaluar Postulante</t>
+  </si>
+  <si>
+    <t>Gestionar Evaluaciones de Personal</t>
+  </si>
+  <si>
+    <t>Desarrollar Evaluaciones</t>
+  </si>
+  <si>
+    <t>Corregir Evaluaciones de Personal</t>
+  </si>
+  <si>
+    <t>Gestionar Capacitación</t>
+  </si>
+  <si>
+    <t>Elaborar Carta de Renuncia</t>
+  </si>
+  <si>
+    <t>Elaborar Carta de Exoneración de Tiempo</t>
+  </si>
+  <si>
+    <t>Gestionar Contrato</t>
+  </si>
+  <si>
+    <t>Planificación Institucional</t>
+  </si>
+  <si>
+    <t>Gestión de Fuentes de Financiamiento</t>
+  </si>
+  <si>
+    <t>Gestión de Proyectos</t>
+  </si>
+  <si>
+    <t>Gestión de Adquisiciones</t>
+  </si>
+  <si>
+    <t>Gestión de Donaciones</t>
+  </si>
+  <si>
+    <t>Gestión de Construcciones</t>
+  </si>
+  <si>
+    <t>Gestión de Personal</t>
+  </si>
+  <si>
+    <t>Gestión de Viajes</t>
+  </si>
+  <si>
+    <t>Gestión Contable</t>
+  </si>
+  <si>
+    <t>Gestión de Selección de Personal</t>
+  </si>
+  <si>
+    <t>Gestión Financiera</t>
+  </si>
+  <si>
+    <t>Gestionar Notificaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +592,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -435,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -474,6 +742,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,11 +1060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AS21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BN32" sqref="BN32"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,13 +4152,742 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="35.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22"/>
+    <col min="7" max="7" width="39.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
